--- a/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-6-2023.xlsx
+++ b/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-6-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>NUC</t>
   </si>
@@ -41,94 +41,58 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Archivo Temporal</t>
+    <t>Mediacion</t>
   </si>
   <si>
     <t>No Detenido</t>
   </si>
   <si>
-    <t>Unidad de Atención Inmediata Apatzingán</t>
+    <t>Unidad de Investigación Coahuayana</t>
   </si>
   <si>
-    <t>APATZINGAN</t>
+    <t>COALCOMAN</t>
   </si>
   <si>
-    <t>Patricia Arredondo Dueñas</t>
-  </si>
-  <si>
-    <t>Mediacion</t>
-  </si>
-  <si>
-    <t>Unidad de Investigación Apatzingán</t>
-  </si>
-  <si>
-    <t>Esther Reyes Piceno</t>
+    <t>Rafael Jacinto Reyes</t>
   </si>
   <si>
     <t>No Ejercicio de la accion penal</t>
   </si>
   <si>
+    <t>Ricardo Talavera Rivera</t>
+  </si>
+  <si>
+    <t>Archivo Temporal</t>
+  </si>
+  <si>
+    <t>Abierto/Reiniciado</t>
+  </si>
+  <si>
     <t>Enviadas a Litigacion</t>
+  </si>
+  <si>
+    <t>Unidad de Investigación Coalcomán</t>
+  </si>
+  <si>
+    <t>Fernando  López  Hernández</t>
+  </si>
+  <si>
+    <t>Jhony Canales Maldonado</t>
   </si>
   <si>
     <t>Incompetencia</t>
   </si>
   <si>
-    <t>Magali Camargo Ortuño</t>
+    <t>Unidad de Investigación Tepalcatepec</t>
   </si>
   <si>
-    <t>Felix Hernández Hernández</t>
-  </si>
-  <si>
-    <t>Maria de Jesús Sánchez Núñez</t>
-  </si>
-  <si>
-    <t>Acumulacion</t>
-  </si>
-  <si>
-    <t>Abierto/Reiniciado</t>
-  </si>
-  <si>
-    <t>Edilberto Frutos Guzmán</t>
-  </si>
-  <si>
-    <t>Abstencion de Investigar</t>
-  </si>
-  <si>
-    <t>Zacarias Diaz Ayala</t>
-  </si>
-  <si>
-    <t>Erika López Mendoza</t>
-  </si>
-  <si>
-    <t>Unidad de Investigación Buenavista</t>
-  </si>
-  <si>
-    <t>Luis Felipe Gutierrez Hernandez</t>
-  </si>
-  <si>
-    <t>Unidad de Investigación Especializada en Justicia Penal para Adolescentes</t>
-  </si>
-  <si>
-    <t>Unidad de Investigación Nueva Italia</t>
-  </si>
-  <si>
-    <t>Sául Guzmán Téllez</t>
+    <t>Yazmín Celeste Godoy Rodriguez</t>
   </si>
   <si>
     <t>Fiscalía Especializada para la Atención de Delitos de Violencia Familiar y de Género</t>
   </si>
   <si>
-    <t>Gabriela Ayala Herrera</t>
-  </si>
-  <si>
-    <t>Detenido</t>
-  </si>
-  <si>
-    <t>Unidad Especializada de Investigación y Persecución del Homicidio</t>
-  </si>
-  <si>
-    <t>Mirna Berenice Palomino Chavez</t>
+    <t>Alejandra Escamilla Garcia</t>
   </si>
 </sst>
 </file>
@@ -494,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -538,7 +502,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>1001202309718</v>
+        <v>1008202309868</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -564,7 +528,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>1001202308951</v>
+        <v>1008202319557</v>
       </c>
       <c r="B3">
         <v>2023</v>
@@ -573,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -585,12 +549,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>1001202311381</v>
+        <v>1008202323857</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -616,7 +580,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>1001202311550</v>
+        <v>1008202239268</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -625,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -637,12 +601,12 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>1001202320890</v>
+        <v>1002202309247</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -651,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -668,7 +632,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>1001202316861</v>
+        <v>1008202303729</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -677,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -689,12 +653,12 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>1001202315798</v>
+        <v>1008202320250</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -703,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -720,7 +684,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>1001202318596</v>
+        <v>1008202113904</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -729,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -741,12 +705,12 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>1001202323037</v>
+        <v>1008202317004</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -755,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -772,7 +736,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>1001202320479</v>
+        <v>1008202138476</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -781,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -793,12 +757,12 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>1001202321143</v>
+        <v>1008202324395</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -807,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -824,7 +788,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>1001202301845</v>
+        <v>1008202323799</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -833,24 +797,24 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>1001202248281</v>
+        <v>1008202323766</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -859,24 +823,24 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>1001202311427</v>
+        <v>1008202111181</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -885,24 +849,24 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>1001202301986</v>
+        <v>1008202310410</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -911,24 +875,24 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>1001202310220</v>
+        <v>1008202111181</v>
       </c>
       <c r="B17">
         <v>2023</v>
@@ -937,24 +901,24 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>1001202319681</v>
+        <v>1008202310410</v>
       </c>
       <c r="B18">
         <v>2023</v>
@@ -963,24 +927,24 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>1001202321198</v>
+        <v>1008202323206</v>
       </c>
       <c r="B19">
         <v>2023</v>
@@ -989,24 +953,24 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>1001202317816</v>
+        <v>1008202318289</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -1021,18 +985,18 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>1001202323506</v>
+        <v>1008202323452</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -1041,24 +1005,24 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
         <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>1001202324025</v>
+        <v>1008202318289</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1067,24 +1031,24 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>1001202320799</v>
+        <v>1008202322610</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1093,24 +1057,24 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
         <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>1001202316461</v>
+        <v>1008202309183</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -1119,24 +1083,24 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>1001202313997</v>
+        <v>1008202315414</v>
       </c>
       <c r="B25">
         <v>2023</v>
@@ -1145,24 +1109,24 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
         <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
-        <v>1001202314573</v>
+        <v>1008202317243</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -1171,24 +1135,24 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
-        <v>1001202318027</v>
+        <v>1008202319071</v>
       </c>
       <c r="B27">
         <v>2023</v>
@@ -1203,18 +1167,18 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
         <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
-        <v>1001202319884</v>
+        <v>1008202322610</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1223,24 +1187,24 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
         <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>1001202315802</v>
+        <v>1008202322610</v>
       </c>
       <c r="B29">
         <v>2023</v>
@@ -1255,18 +1219,18 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
         <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>1001202322165</v>
+        <v>1008202013881</v>
       </c>
       <c r="B30">
         <v>2023</v>
@@ -1275,24 +1239,24 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>1001202314112</v>
+        <v>1008201833005</v>
       </c>
       <c r="B31">
         <v>2023</v>
@@ -1301,13 +1265,13 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1318,7 +1282,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>1001202311697</v>
+        <v>1008202013459</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -1327,24 +1291,24 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
-        <v>1001202320037</v>
+        <v>1008202315641</v>
       </c>
       <c r="B33">
         <v>2023</v>
@@ -1353,24 +1317,24 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>1001202323846</v>
+        <v>1008202117757</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -1379,24 +1343,24 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
-        <v>1001202320392</v>
+        <v>1008202121081</v>
       </c>
       <c r="B35">
         <v>2023</v>
@@ -1405,24 +1369,24 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
-        <v>1001202316722</v>
+        <v>1008202117757</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1431,24 +1395,24 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3">
-        <v>1001202320388</v>
+        <v>1008201836995</v>
       </c>
       <c r="B37">
         <v>2023</v>
@@ -1457,24 +1421,24 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3">
-        <v>1001202314375</v>
+        <v>1008202232560</v>
       </c>
       <c r="B38">
         <v>2023</v>
@@ -1483,24 +1447,24 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3">
-        <v>1001202320051</v>
+        <v>1008202306948</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -1509,24 +1473,24 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3">
-        <v>1001202247990</v>
+        <v>1008202219552</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1541,18 +1505,18 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3">
-        <v>1001202317361</v>
+        <v>1008201831274</v>
       </c>
       <c r="B41">
         <v>2023</v>
@@ -1561,24 +1525,24 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3">
-        <v>1001202247372</v>
+        <v>1008202219552</v>
       </c>
       <c r="B42">
         <v>2023</v>
@@ -1587,24 +1551,24 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3">
-        <v>1001202310022</v>
+        <v>1008201830910</v>
       </c>
       <c r="B43">
         <v>2023</v>
@@ -1613,24 +1577,24 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3">
-        <v>1001202310022</v>
+        <v>1008202322175</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -1639,24 +1603,24 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3">
-        <v>1001202044690</v>
+        <v>1008202234975</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1665,24 +1629,24 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3">
-        <v>1001202045134</v>
+        <v>1008202321233</v>
       </c>
       <c r="B46">
         <v>2023</v>
@@ -1691,24 +1655,24 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>1001202248342</v>
+        <v>1008202324740</v>
       </c>
       <c r="B47">
         <v>2023</v>
@@ -1717,24 +1681,24 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3">
-        <v>1001202047665</v>
+        <v>1008202322175</v>
       </c>
       <c r="B48">
         <v>2023</v>
@@ -1743,24 +1707,24 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3">
-        <v>1001202246575</v>
+        <v>1008202213970</v>
       </c>
       <c r="B49">
         <v>2023</v>
@@ -1769,24 +1733,24 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3">
-        <v>1001202247724</v>
+        <v>1008202322175</v>
       </c>
       <c r="B50">
         <v>2023</v>
@@ -1795,24 +1759,24 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3">
-        <v>1001202323039</v>
+        <v>1008202213970</v>
       </c>
       <c r="B51">
         <v>2023</v>
@@ -1821,24 +1785,24 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3">
-        <v>1001202321605</v>
+        <v>1008202317552</v>
       </c>
       <c r="B52">
         <v>2023</v>
@@ -1847,24 +1811,24 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3">
-        <v>1001202323871</v>
+        <v>1008202322021</v>
       </c>
       <c r="B53">
         <v>2023</v>
@@ -1873,24 +1837,24 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3">
-        <v>1001202321795</v>
+        <v>1008202324190</v>
       </c>
       <c r="B54">
         <v>2023</v>
@@ -1899,24 +1863,24 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3">
-        <v>1001202225875</v>
+        <v>1008202322918</v>
       </c>
       <c r="B55">
         <v>2023</v>
@@ -1925,24 +1889,24 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3">
-        <v>1001202314054</v>
+        <v>1008202312363</v>
       </c>
       <c r="B56">
         <v>2023</v>
@@ -1951,24 +1915,24 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3">
-        <v>1001202132755</v>
+        <v>1008202312363</v>
       </c>
       <c r="B57">
         <v>2023</v>
@@ -1977,24 +1941,24 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3">
-        <v>1001202136133</v>
+        <v>1008201834874</v>
       </c>
       <c r="B58">
         <v>2023</v>
@@ -2003,24 +1967,24 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3">
-        <v>1001202106204</v>
+        <v>1008202231811</v>
       </c>
       <c r="B59">
         <v>2023</v>
@@ -2029,24 +1993,24 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3">
-        <v>1001202213963</v>
+        <v>1008202231811</v>
       </c>
       <c r="B60">
         <v>2023</v>
@@ -2055,24 +2019,24 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3">
-        <v>1001202106856</v>
+        <v>1008202231811</v>
       </c>
       <c r="B61">
         <v>2023</v>
@@ -2081,24 +2045,24 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3">
-        <v>1001202140000</v>
+        <v>1008202234464</v>
       </c>
       <c r="B62">
         <v>2023</v>
@@ -2107,24 +2071,24 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3">
-        <v>1001202219563</v>
+        <v>1008202318952</v>
       </c>
       <c r="B63">
         <v>2023</v>
@@ -2133,24 +2097,24 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3">
-        <v>1001202319677</v>
+        <v>1008202318897</v>
       </c>
       <c r="B64">
         <v>2023</v>
@@ -2159,24 +2123,24 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3">
-        <v>1001201849228</v>
+        <v>1008202320617</v>
       </c>
       <c r="B65">
         <v>2023</v>
@@ -2185,24 +2149,24 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3">
-        <v>1001201917554</v>
+        <v>1008202217096</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -2211,24 +2175,24 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3">
-        <v>1001201942212</v>
+        <v>1008202214363</v>
       </c>
       <c r="B67">
         <v>2023</v>
@@ -2237,24 +2201,24 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3">
-        <v>1001201943906</v>
+        <v>1008202248449</v>
       </c>
       <c r="B68">
         <v>2023</v>
@@ -2263,24 +2227,24 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3">
-        <v>1001201843507</v>
+        <v>1008202319778</v>
       </c>
       <c r="B69">
         <v>2023</v>
@@ -2289,24 +2253,24 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3">
-        <v>1001202319006</v>
+        <v>1008202316677</v>
       </c>
       <c r="B70">
         <v>2023</v>
@@ -2315,24 +2279,24 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3">
-        <v>1001202122464</v>
+        <v>1008202320768</v>
       </c>
       <c r="B71">
         <v>2023</v>
@@ -2347,18 +2311,18 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>1001202116014</v>
+        <v>1008202320333</v>
       </c>
       <c r="B72">
         <v>2023</v>
@@ -2367,24 +2331,24 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>1001202144784</v>
+        <v>1008202321696</v>
       </c>
       <c r="B73">
         <v>2023</v>
@@ -2393,24 +2357,24 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3">
-        <v>1001202125524</v>
+        <v>1008202234464</v>
       </c>
       <c r="B74">
         <v>2023</v>
@@ -2419,24 +2383,24 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3">
-        <v>1001202148136</v>
+        <v>1008202234464</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -2445,24 +2409,24 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3">
-        <v>1001201944074</v>
+        <v>1008202322243</v>
       </c>
       <c r="B76">
         <v>2023</v>
@@ -2471,24 +2435,24 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3">
-        <v>1001202318766</v>
+        <v>1008202322694</v>
       </c>
       <c r="B77">
         <v>2023</v>
@@ -2497,24 +2461,24 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3">
-        <v>1001202105419</v>
+        <v>1008202135416</v>
       </c>
       <c r="B78">
         <v>2023</v>
@@ -2529,18 +2493,18 @@
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3">
-        <v>1001202312974</v>
+        <v>1008202135416</v>
       </c>
       <c r="B79">
         <v>2023</v>
@@ -2549,24 +2513,24 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3">
-        <v>1001202220854</v>
+        <v>1008202038560</v>
       </c>
       <c r="B80">
         <v>2023</v>
@@ -2581,18 +2545,18 @@
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3">
-        <v>1001202315128</v>
+        <v>1008202038560</v>
       </c>
       <c r="B81">
         <v>2023</v>
@@ -2601,24 +2565,24 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3">
-        <v>1001202323744</v>
+        <v>1008202245736</v>
       </c>
       <c r="B82">
         <v>2023</v>
@@ -2627,24 +2591,24 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="3">
-        <v>1001202318620</v>
+        <v>1008202245736</v>
       </c>
       <c r="B83">
         <v>2023</v>
@@ -2653,24 +2617,24 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3">
-        <v>1001202245154</v>
+        <v>1008202248247</v>
       </c>
       <c r="B84">
         <v>2023</v>
@@ -2679,24 +2643,24 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3">
-        <v>1001202314646</v>
+        <v>1008202248247</v>
       </c>
       <c r="B85">
         <v>2023</v>
@@ -2705,24 +2669,24 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3">
-        <v>1001202205035</v>
+        <v>1008202303759</v>
       </c>
       <c r="B86">
         <v>2023</v>
@@ -2731,24 +2695,24 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="3">
-        <v>1001202028468</v>
+        <v>1001201720352</v>
       </c>
       <c r="B87">
         <v>2023</v>
@@ -2757,24 +2721,24 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3">
-        <v>1001202044315</v>
+        <v>1008202302897</v>
       </c>
       <c r="B88">
         <v>2023</v>
@@ -2783,24 +2747,24 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3">
-        <v>1001202124984</v>
+        <v>1001201720352</v>
       </c>
       <c r="B89">
         <v>2023</v>
@@ -2809,24 +2773,24 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3">
-        <v>1001201719814</v>
+        <v>1001201720352</v>
       </c>
       <c r="B90">
         <v>2023</v>
@@ -2835,24 +2799,24 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="3">
-        <v>1001201634863</v>
+        <v>1008202303759</v>
       </c>
       <c r="B91">
         <v>2023</v>
@@ -2861,24 +2825,24 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3">
-        <v>1001201634863</v>
+        <v>1008202303759</v>
       </c>
       <c r="B92">
         <v>2023</v>
@@ -2893,18 +2857,18 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3">
-        <v>1001201647498</v>
+        <v>1008202303759</v>
       </c>
       <c r="B93">
         <v>2023</v>
@@ -2913,24 +2877,24 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="3">
-        <v>1001201635819</v>
+        <v>1008202317873</v>
       </c>
       <c r="B94">
         <v>2023</v>
@@ -2939,24 +2903,24 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="3">
-        <v>1001201635819</v>
+        <v>1008202317873</v>
       </c>
       <c r="B95">
         <v>2023</v>
@@ -2965,24 +2929,24 @@
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="3">
-        <v>1001201647441</v>
+        <v>1008202317913</v>
       </c>
       <c r="B96">
         <v>2023</v>
@@ -2991,24 +2955,24 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="3">
-        <v>1001201635368</v>
+        <v>1008202317913</v>
       </c>
       <c r="B97">
         <v>2023</v>
@@ -3023,18 +2987,18 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="3">
-        <v>1001201639880</v>
+        <v>1008202317913</v>
       </c>
       <c r="B98">
         <v>2023</v>
@@ -3043,24 +3007,24 @@
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="3">
-        <v>1001201639880</v>
+        <v>1008202322187</v>
       </c>
       <c r="B99">
         <v>2023</v>
@@ -3069,1787 +3033,19 @@
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="3">
-        <v>1001201656630</v>
-      </c>
-      <c r="B100">
-        <v>2023</v>
-      </c>
-      <c r="C100">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="3">
-        <v>1001201654267</v>
-      </c>
-      <c r="B101">
-        <v>2023</v>
-      </c>
-      <c r="C101">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="3">
-        <v>1001201646994</v>
-      </c>
-      <c r="B102">
-        <v>2023</v>
-      </c>
-      <c r="C102">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="3">
-        <v>1001201658425</v>
-      </c>
-      <c r="B103">
-        <v>2023</v>
-      </c>
-      <c r="C103">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="3">
-        <v>1001201656707</v>
-      </c>
-      <c r="B104">
-        <v>2023</v>
-      </c>
-      <c r="C104">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="3">
-        <v>1001201647845</v>
-      </c>
-      <c r="B105">
-        <v>2023</v>
-      </c>
-      <c r="C105">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="3">
-        <v>1001201647845</v>
-      </c>
-      <c r="B106">
-        <v>2023</v>
-      </c>
-      <c r="C106">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="3">
-        <v>1001201648731</v>
-      </c>
-      <c r="B107">
-        <v>2023</v>
-      </c>
-      <c r="C107">
-        <v>6</v>
-      </c>
-      <c r="D107" t="s">
-        <v>16</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>28</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="3">
-        <v>1001201657825</v>
-      </c>
-      <c r="B108">
-        <v>2023</v>
-      </c>
-      <c r="C108">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="3">
-        <v>1001201652774</v>
-      </c>
-      <c r="B109">
-        <v>2023</v>
-      </c>
-      <c r="C109">
-        <v>6</v>
-      </c>
-      <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="3">
-        <v>1001201657373</v>
-      </c>
-      <c r="B110">
-        <v>2023</v>
-      </c>
-      <c r="C110">
-        <v>6</v>
-      </c>
-      <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="3">
-        <v>1001201655160</v>
-      </c>
-      <c r="B111">
-        <v>2023</v>
-      </c>
-      <c r="C111">
-        <v>6</v>
-      </c>
-      <c r="D111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="3">
-        <v>1001201655160</v>
-      </c>
-      <c r="B112">
-        <v>2023</v>
-      </c>
-      <c r="C112">
-        <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="3">
-        <v>1001201652989</v>
-      </c>
-      <c r="B113">
-        <v>2023</v>
-      </c>
-      <c r="C113">
-        <v>6</v>
-      </c>
-      <c r="D113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="3">
-        <v>1001201652989</v>
-      </c>
-      <c r="B114">
-        <v>2023</v>
-      </c>
-      <c r="C114">
-        <v>6</v>
-      </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="3">
-        <v>1001202216369</v>
-      </c>
-      <c r="B115">
-        <v>2023</v>
-      </c>
-      <c r="C115">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="3">
-        <v>1001201938287</v>
-      </c>
-      <c r="B116">
-        <v>2023</v>
-      </c>
-      <c r="C116">
-        <v>6</v>
-      </c>
-      <c r="D116" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="3">
-        <v>1001202311361</v>
-      </c>
-      <c r="B117">
-        <v>2023</v>
-      </c>
-      <c r="C117">
-        <v>6</v>
-      </c>
-      <c r="D117" t="s">
         <v>25</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="3">
-        <v>1001202037838</v>
-      </c>
-      <c r="B118">
-        <v>2023</v>
-      </c>
-      <c r="C118">
-        <v>6</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="3">
-        <v>1001201936801</v>
-      </c>
-      <c r="B119">
-        <v>2023</v>
-      </c>
-      <c r="C119">
-        <v>6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="3">
-        <v>1001202300115</v>
-      </c>
-      <c r="B120">
-        <v>2023</v>
-      </c>
-      <c r="C120">
-        <v>6</v>
-      </c>
-      <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="3">
-        <v>1001201938287</v>
-      </c>
-      <c r="B121">
-        <v>2023</v>
-      </c>
-      <c r="C121">
-        <v>6</v>
-      </c>
-      <c r="D121" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="3">
-        <v>1001202309841</v>
-      </c>
-      <c r="B122">
-        <v>2023</v>
-      </c>
-      <c r="C122">
-        <v>6</v>
-      </c>
-      <c r="D122" t="s">
-        <v>16</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="3">
-        <v>1001202312079</v>
-      </c>
-      <c r="B123">
-        <v>2023</v>
-      </c>
-      <c r="C123">
-        <v>6</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="3">
-        <v>1001202315990</v>
-      </c>
-      <c r="B124">
-        <v>2023</v>
-      </c>
-      <c r="C124">
-        <v>6</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="3">
-        <v>1001202320492</v>
-      </c>
-      <c r="B125">
-        <v>2023</v>
-      </c>
-      <c r="C125">
-        <v>6</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="3">
-        <v>1001202313115</v>
-      </c>
-      <c r="B126">
-        <v>2023</v>
-      </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="3">
-        <v>1001202320956</v>
-      </c>
-      <c r="B127">
-        <v>2023</v>
-      </c>
-      <c r="C127">
-        <v>6</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>33</v>
-      </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="3">
-        <v>1001202321159</v>
-      </c>
-      <c r="B128">
-        <v>2023</v>
-      </c>
-      <c r="C128">
-        <v>6</v>
-      </c>
-      <c r="D128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="3">
-        <v>1001202319737</v>
-      </c>
-      <c r="B129">
-        <v>2023</v>
-      </c>
-      <c r="C129">
-        <v>6</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="3">
-        <v>1001201810782</v>
-      </c>
-      <c r="B130">
-        <v>2023</v>
-      </c>
-      <c r="C130">
-        <v>6</v>
-      </c>
-      <c r="D130" t="s">
-        <v>16</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>33</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="3">
-        <v>1001201802028</v>
-      </c>
-      <c r="B131">
-        <v>2023</v>
-      </c>
-      <c r="C131">
-        <v>6</v>
-      </c>
-      <c r="D131" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="3">
-        <v>1001201805131</v>
-      </c>
-      <c r="B132">
-        <v>2023</v>
-      </c>
-      <c r="C132">
-        <v>6</v>
-      </c>
-      <c r="D132" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" t="s">
-        <v>33</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="3">
-        <v>1001201732988</v>
-      </c>
-      <c r="B133">
-        <v>2023</v>
-      </c>
-      <c r="C133">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>33</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="3">
-        <v>1001201805654</v>
-      </c>
-      <c r="B134">
-        <v>2023</v>
-      </c>
-      <c r="C134">
-        <v>6</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="3">
-        <v>1001201734691</v>
-      </c>
-      <c r="B135">
-        <v>2023</v>
-      </c>
-      <c r="C135">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>33</v>
-      </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="3">
-        <v>1001201653351</v>
-      </c>
-      <c r="B136">
-        <v>2023</v>
-      </c>
-      <c r="C136">
-        <v>6</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" t="s">
-        <v>33</v>
-      </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="3">
-        <v>1001201704222</v>
-      </c>
-      <c r="B137">
-        <v>2023</v>
-      </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-      <c r="D137" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="3">
-        <v>1001201634957</v>
-      </c>
-      <c r="B138">
-        <v>2023</v>
-      </c>
-      <c r="C138">
-        <v>6</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>33</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="3">
-        <v>1001201800351</v>
-      </c>
-      <c r="B139">
-        <v>2023</v>
-      </c>
-      <c r="C139">
-        <v>6</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>33</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="3">
-        <v>1001201751383</v>
-      </c>
-      <c r="B140">
-        <v>2023</v>
-      </c>
-      <c r="C140">
-        <v>6</v>
-      </c>
-      <c r="D140" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>33</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="3">
-        <v>1001201630378</v>
-      </c>
-      <c r="B141">
-        <v>2023</v>
-      </c>
-      <c r="C141">
-        <v>6</v>
-      </c>
-      <c r="D141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" t="s">
-        <v>33</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="3">
-        <v>1001201744876</v>
-      </c>
-      <c r="B142">
-        <v>2023</v>
-      </c>
-      <c r="C142">
-        <v>6</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="3">
-        <v>1001201645852</v>
-      </c>
-      <c r="B143">
-        <v>2023</v>
-      </c>
-      <c r="C143">
-        <v>6</v>
-      </c>
-      <c r="D143" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>33</v>
-      </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="3">
-        <v>1001201708614</v>
-      </c>
-      <c r="B144">
-        <v>2023</v>
-      </c>
-      <c r="C144">
-        <v>6</v>
-      </c>
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>33</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="3">
-        <v>1001201909631</v>
-      </c>
-      <c r="B145">
-        <v>2023</v>
-      </c>
-      <c r="C145">
-        <v>6</v>
-      </c>
-      <c r="D145" t="s">
-        <v>23</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>33</v>
-      </c>
-      <c r="G145" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="3">
-        <v>1001201909631</v>
-      </c>
-      <c r="B146">
-        <v>2023</v>
-      </c>
-      <c r="C146">
-        <v>6</v>
-      </c>
-      <c r="D146" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>33</v>
-      </c>
-      <c r="G146" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="3">
-        <v>1001201800948</v>
-      </c>
-      <c r="B147">
-        <v>2023</v>
-      </c>
-      <c r="C147">
-        <v>6</v>
-      </c>
-      <c r="D147" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>33</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="3">
-        <v>1001201803430</v>
-      </c>
-      <c r="B148">
-        <v>2023</v>
-      </c>
-      <c r="C148">
-        <v>6</v>
-      </c>
-      <c r="D148" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="3">
-        <v>1001201740767</v>
-      </c>
-      <c r="B149">
-        <v>2023</v>
-      </c>
-      <c r="C149">
-        <v>6</v>
-      </c>
-      <c r="D149" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>33</v>
-      </c>
-      <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="3">
-        <v>1001201821115</v>
-      </c>
-      <c r="B150">
-        <v>2023</v>
-      </c>
-      <c r="C150">
-        <v>6</v>
-      </c>
-      <c r="D150" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>33</v>
-      </c>
-      <c r="G150" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="3">
-        <v>1001201741996</v>
-      </c>
-      <c r="B151">
-        <v>2023</v>
-      </c>
-      <c r="C151">
-        <v>6</v>
-      </c>
-      <c r="D151" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>33</v>
-      </c>
-      <c r="G151" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="3">
-        <v>1001201844418</v>
-      </c>
-      <c r="B152">
-        <v>2023</v>
-      </c>
-      <c r="C152">
-        <v>6</v>
-      </c>
-      <c r="D152" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
-        <v>33</v>
-      </c>
-      <c r="G152" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="3">
-        <v>1001201642392</v>
-      </c>
-      <c r="B153">
-        <v>2023</v>
-      </c>
-      <c r="C153">
-        <v>6</v>
-      </c>
-      <c r="D153" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" t="s">
-        <v>33</v>
-      </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="3">
-        <v>1001201740603</v>
-      </c>
-      <c r="B154">
-        <v>2023</v>
-      </c>
-      <c r="C154">
-        <v>6</v>
-      </c>
-      <c r="D154" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" t="s">
-        <v>33</v>
-      </c>
-      <c r="G154" t="s">
-        <v>11</v>
-      </c>
-      <c r="H154" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="3">
-        <v>1001201749339</v>
-      </c>
-      <c r="B155">
-        <v>2023</v>
-      </c>
-      <c r="C155">
-        <v>6</v>
-      </c>
-      <c r="D155" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>33</v>
-      </c>
-      <c r="G155" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="3">
-        <v>1001201843770</v>
-      </c>
-      <c r="B156">
-        <v>2023</v>
-      </c>
-      <c r="C156">
-        <v>6</v>
-      </c>
-      <c r="D156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" t="s">
-        <v>33</v>
-      </c>
-      <c r="G156" t="s">
-        <v>11</v>
-      </c>
-      <c r="H156" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="3">
-        <v>1001201718397</v>
-      </c>
-      <c r="B157">
-        <v>2023</v>
-      </c>
-      <c r="C157">
-        <v>6</v>
-      </c>
-      <c r="D157" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>33</v>
-      </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="3">
-        <v>1001201913630</v>
-      </c>
-      <c r="B158">
-        <v>2023</v>
-      </c>
-      <c r="C158">
-        <v>6</v>
-      </c>
-      <c r="D158" t="s">
-        <v>23</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>33</v>
-      </c>
-      <c r="G158" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="3">
-        <v>1001201913630</v>
-      </c>
-      <c r="B159">
-        <v>2023</v>
-      </c>
-      <c r="C159">
-        <v>6</v>
-      </c>
-      <c r="D159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>33</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="3">
-        <v>1001201654124</v>
-      </c>
-      <c r="B160">
-        <v>2023</v>
-      </c>
-      <c r="C160">
-        <v>6</v>
-      </c>
-      <c r="D160" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" t="s">
-        <v>33</v>
-      </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="3">
-        <v>1001201703559</v>
-      </c>
-      <c r="B161">
-        <v>2023</v>
-      </c>
-      <c r="C161">
-        <v>6</v>
-      </c>
-      <c r="D161" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>33</v>
-      </c>
-      <c r="G161" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="3">
-        <v>1001201647251</v>
-      </c>
-      <c r="B162">
-        <v>2023</v>
-      </c>
-      <c r="C162">
-        <v>6</v>
-      </c>
-      <c r="D162" t="s">
-        <v>16</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" t="s">
-        <v>33</v>
-      </c>
-      <c r="G162" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="3">
-        <v>1001201741813</v>
-      </c>
-      <c r="B163">
-        <v>2023</v>
-      </c>
-      <c r="C163">
-        <v>6</v>
-      </c>
-      <c r="D163" t="s">
-        <v>16</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>33</v>
-      </c>
-      <c r="G163" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="3">
-        <v>1001201718572</v>
-      </c>
-      <c r="B164">
-        <v>2023</v>
-      </c>
-      <c r="C164">
-        <v>6</v>
-      </c>
-      <c r="D164" t="s">
-        <v>16</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" t="s">
-        <v>33</v>
-      </c>
-      <c r="G164" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="3">
-        <v>1001201648144</v>
-      </c>
-      <c r="B165">
-        <v>2023</v>
-      </c>
-      <c r="C165">
-        <v>6</v>
-      </c>
-      <c r="D165" t="s">
-        <v>16</v>
-      </c>
-      <c r="E165" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" t="s">
-        <v>33</v>
-      </c>
-      <c r="G165" t="s">
-        <v>11</v>
-      </c>
-      <c r="H165" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="3">
-        <v>1001201705731</v>
-      </c>
-      <c r="B166">
-        <v>2023</v>
-      </c>
-      <c r="C166">
-        <v>6</v>
-      </c>
-      <c r="D166" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="3">
-        <v>1001202323733</v>
-      </c>
-      <c r="B167">
-        <v>2023</v>
-      </c>
-      <c r="C167">
-        <v>6</v>
-      </c>
-      <c r="D167" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" t="s">
-        <v>35</v>
-      </c>
-      <c r="F167" t="s">
-        <v>36</v>
-      </c>
-      <c r="G167" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
